--- a/natmiOut/OldD4/LR-pairs_lrc2p/Vegfb-Nrp1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Vegfb-Nrp1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.29599177551754</v>
+        <v>1.532077666666667</v>
       </c>
       <c r="H2">
-        <v>1.29599177551754</v>
+        <v>4.596233</v>
       </c>
       <c r="I2">
-        <v>0.07436197021938715</v>
+        <v>0.07969157180033017</v>
       </c>
       <c r="J2">
-        <v>0.07436197021938715</v>
+        <v>0.08617351379832186</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>105.073387288303</v>
+        <v>109.1447706666667</v>
       </c>
       <c r="N2">
-        <v>105.073387288303</v>
+        <v>327.434312</v>
       </c>
       <c r="O2">
-        <v>0.3516912742863937</v>
+        <v>0.3535542089399963</v>
       </c>
       <c r="P2">
-        <v>0.3516912742863937</v>
+        <v>0.3655959674582361</v>
       </c>
       <c r="Q2">
-        <v>136.1742457514099</v>
+        <v>167.2182655718551</v>
       </c>
       <c r="R2">
-        <v>136.1742457514099</v>
+        <v>1504.964390146696</v>
       </c>
       <c r="S2">
-        <v>0.02615245606490313</v>
+        <v>0.02817529062705065</v>
       </c>
       <c r="T2">
-        <v>0.02615245606490313</v>
+        <v>0.03150468914637314</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.29599177551754</v>
+        <v>1.532077666666667</v>
       </c>
       <c r="H3">
-        <v>1.29599177551754</v>
+        <v>4.596233</v>
       </c>
       <c r="I3">
-        <v>0.07436197021938715</v>
+        <v>0.07969157180033017</v>
       </c>
       <c r="J3">
-        <v>0.07436197021938715</v>
+        <v>0.08617351379832186</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>44.8389682919333</v>
+        <v>47.980825</v>
       </c>
       <c r="N3">
-        <v>44.8389682919333</v>
+        <v>143.942475</v>
       </c>
       <c r="O3">
-        <v>0.1500805703827607</v>
+        <v>0.155424969272891</v>
       </c>
       <c r="P3">
-        <v>0.1500805703827607</v>
+        <v>0.1607186127944892</v>
       </c>
       <c r="Q3">
-        <v>58.11093412903732</v>
+        <v>73.51035041074167</v>
       </c>
       <c r="R3">
-        <v>58.11093412903732</v>
+        <v>661.593153696675</v>
       </c>
       <c r="S3">
-        <v>0.01116028690531148</v>
+        <v>0.0123860600983747</v>
       </c>
       <c r="T3">
-        <v>0.01116028690531148</v>
+        <v>0.01384968759729306</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.29599177551754</v>
+        <v>1.532077666666667</v>
       </c>
       <c r="H4">
-        <v>1.29599177551754</v>
+        <v>4.596233</v>
       </c>
       <c r="I4">
-        <v>0.07436197021938715</v>
+        <v>0.07969157180033017</v>
       </c>
       <c r="J4">
-        <v>0.07436197021938715</v>
+        <v>0.08617351379832186</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>61.2503773798872</v>
+        <v>62.26741999999999</v>
       </c>
       <c r="N4">
-        <v>61.2503773798872</v>
+        <v>186.80226</v>
       </c>
       <c r="O4">
-        <v>0.2050112195598081</v>
+        <v>0.2017037397794264</v>
       </c>
       <c r="P4">
-        <v>0.2050112195598081</v>
+        <v>0.2085735992386923</v>
       </c>
       <c r="Q4">
-        <v>79.37998533167938</v>
+        <v>95.39852354295333</v>
       </c>
       <c r="R4">
-        <v>79.37998533167938</v>
+        <v>858.5867118865799</v>
       </c>
       <c r="S4">
-        <v>0.01524503820354669</v>
+        <v>0.01607408806102727</v>
       </c>
       <c r="T4">
-        <v>0.01524503820354669</v>
+        <v>0.01797351993196111</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.29599177551754</v>
+        <v>1.532077666666667</v>
       </c>
       <c r="H5">
-        <v>1.29599177551754</v>
+        <v>4.596233</v>
       </c>
       <c r="I5">
-        <v>0.07436197021938715</v>
+        <v>0.07969157180033017</v>
       </c>
       <c r="J5">
-        <v>0.07436197021938715</v>
+        <v>0.08617351379832186</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>57.203059180278</v>
+        <v>58.81030666666667</v>
       </c>
       <c r="N5">
-        <v>57.203059180278</v>
+        <v>176.43092</v>
       </c>
       <c r="O5">
-        <v>0.1914644354330388</v>
+        <v>0.1905050633580386</v>
       </c>
       <c r="P5">
-        <v>0.1914644354330388</v>
+        <v>0.1969935053322898</v>
       </c>
       <c r="Q5">
-        <v>74.1346942320834</v>
+        <v>90.10195741381779</v>
       </c>
       <c r="R5">
-        <v>74.1346942320834</v>
+        <v>810.9176167243601</v>
       </c>
       <c r="S5">
-        <v>0.0142376726457434</v>
+        <v>0.01518164793492358</v>
       </c>
       <c r="T5">
-        <v>0.0142376726457434</v>
+        <v>0.01697562254993187</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.29599177551754</v>
+        <v>1.532077666666667</v>
       </c>
       <c r="H6">
-        <v>1.29599177551754</v>
+        <v>4.596233</v>
       </c>
       <c r="I6">
-        <v>0.07436197021938715</v>
+        <v>0.07969157180033017</v>
       </c>
       <c r="J6">
-        <v>0.07436197021938715</v>
+        <v>0.08617351379832186</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.4001852114798</v>
+        <v>30.503993</v>
       </c>
       <c r="N6">
-        <v>30.4001852114798</v>
+        <v>61.007986</v>
       </c>
       <c r="O6">
-        <v>0.1017525003379987</v>
+        <v>0.09881201864964768</v>
       </c>
       <c r="P6">
-        <v>0.1017525003379987</v>
+        <v>0.06811831517629259</v>
       </c>
       <c r="Q6">
-        <v>39.39839000828777</v>
+        <v>46.73448641945634</v>
       </c>
       <c r="R6">
-        <v>39.39839000828777</v>
+        <v>280.406918516738</v>
       </c>
       <c r="S6">
-        <v>0.007566516399882437</v>
+        <v>0.007874485078953962</v>
       </c>
       <c r="T6">
-        <v>0.007566516399882437</v>
+        <v>0.005869994572762687</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.2571781512633</v>
+        <v>4.524801333333333</v>
       </c>
       <c r="H7">
-        <v>4.2571781512633</v>
+        <v>13.574404</v>
       </c>
       <c r="I7">
-        <v>0.2442701881934764</v>
+        <v>0.2353591715243089</v>
       </c>
       <c r="J7">
-        <v>0.2442701881934764</v>
+        <v>0.254502783126529</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>105.073387288303</v>
+        <v>109.1447706666667</v>
       </c>
       <c r="N7">
-        <v>105.073387288303</v>
+        <v>327.434312</v>
       </c>
       <c r="O7">
-        <v>0.3516912742863937</v>
+        <v>0.3535542089399963</v>
       </c>
       <c r="P7">
-        <v>0.3516912742863937</v>
+        <v>0.3655959674582361</v>
       </c>
       <c r="Q7">
-        <v>447.3161286429905</v>
+        <v>493.8584038388942</v>
       </c>
       <c r="R7">
-        <v>447.3161286429905</v>
+        <v>4444.725634550048</v>
       </c>
       <c r="S7">
-        <v>0.08590769375594093</v>
+        <v>0.08321222570504995</v>
       </c>
       <c r="T7">
-        <v>0.08590769375594093</v>
+        <v>0.093045191217957</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.2571781512633</v>
+        <v>4.524801333333333</v>
       </c>
       <c r="H8">
-        <v>4.2571781512633</v>
+        <v>13.574404</v>
       </c>
       <c r="I8">
-        <v>0.2442701881934764</v>
+        <v>0.2353591715243089</v>
       </c>
       <c r="J8">
-        <v>0.2442701881934764</v>
+        <v>0.254502783126529</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>44.8389682919333</v>
+        <v>47.980825</v>
       </c>
       <c r="N8">
-        <v>44.8389682919333</v>
+        <v>143.942475</v>
       </c>
       <c r="O8">
-        <v>0.1500805703827607</v>
+        <v>0.155424969272891</v>
       </c>
       <c r="P8">
-        <v>0.1500805703827607</v>
+        <v>0.1607186127944892</v>
       </c>
       <c r="Q8">
-        <v>190.8874761376063</v>
+        <v>217.1037009344334</v>
       </c>
       <c r="R8">
-        <v>190.8874761376063</v>
+        <v>1953.9333084099</v>
       </c>
       <c r="S8">
-        <v>0.03666020917158123</v>
+        <v>0.03658069200225879</v>
       </c>
       <c r="T8">
-        <v>0.03666020917158123</v>
+        <v>0.04090333425643247</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.2571781512633</v>
+        <v>4.524801333333333</v>
       </c>
       <c r="H9">
-        <v>4.2571781512633</v>
+        <v>13.574404</v>
       </c>
       <c r="I9">
-        <v>0.2442701881934764</v>
+        <v>0.2353591715243089</v>
       </c>
       <c r="J9">
-        <v>0.2442701881934764</v>
+        <v>0.254502783126529</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>61.2503773798872</v>
+        <v>62.26741999999999</v>
       </c>
       <c r="N9">
-        <v>61.2503773798872</v>
+        <v>186.80226</v>
       </c>
       <c r="O9">
-        <v>0.2050112195598081</v>
+        <v>0.2017037397794264</v>
       </c>
       <c r="P9">
-        <v>0.2050112195598081</v>
+        <v>0.2085735992386923</v>
       </c>
       <c r="Q9">
-        <v>260.7537683382877</v>
+        <v>281.7477050392267</v>
       </c>
       <c r="R9">
-        <v>260.7537683382877</v>
+        <v>2535.72934535304</v>
       </c>
       <c r="S9">
-        <v>0.05007812918364844</v>
+        <v>0.04747282508784059</v>
       </c>
       <c r="T9">
-        <v>0.05007812918364844</v>
+        <v>0.05308256149296448</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.2571781512633</v>
+        <v>4.524801333333333</v>
       </c>
       <c r="H10">
-        <v>4.2571781512633</v>
+        <v>13.574404</v>
       </c>
       <c r="I10">
-        <v>0.2442701881934764</v>
+        <v>0.2353591715243089</v>
       </c>
       <c r="J10">
-        <v>0.2442701881934764</v>
+        <v>0.254502783126529</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>57.203059180278</v>
+        <v>58.81030666666667</v>
       </c>
       <c r="N10">
-        <v>57.203059180278</v>
+        <v>176.43092</v>
       </c>
       <c r="O10">
-        <v>0.1914644354330388</v>
+        <v>0.1905050633580386</v>
       </c>
       <c r="P10">
-        <v>0.1914644354330388</v>
+        <v>0.1969935053322898</v>
       </c>
       <c r="Q10">
-        <v>243.523613727701</v>
+        <v>266.1049540190756</v>
       </c>
       <c r="R10">
-        <v>243.523613727701</v>
+        <v>2394.94458617168</v>
       </c>
       <c r="S10">
-        <v>0.04676905367558609</v>
+        <v>0.04483711388313395</v>
       </c>
       <c r="T10">
-        <v>0.04676905367558609</v>
+        <v>0.05013539536491849</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.2571781512633</v>
+        <v>4.524801333333333</v>
       </c>
       <c r="H11">
-        <v>4.2571781512633</v>
+        <v>13.574404</v>
       </c>
       <c r="I11">
-        <v>0.2442701881934764</v>
+        <v>0.2353591715243089</v>
       </c>
       <c r="J11">
-        <v>0.2442701881934764</v>
+        <v>0.254502783126529</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>30.4001852114798</v>
+        <v>30.503993</v>
       </c>
       <c r="N11">
-        <v>30.4001852114798</v>
+        <v>61.007986</v>
       </c>
       <c r="O11">
-        <v>0.1017525003379987</v>
+        <v>0.09881201864964768</v>
       </c>
       <c r="P11">
-        <v>0.1017525003379987</v>
+        <v>0.06811831517629259</v>
       </c>
       <c r="Q11">
-        <v>129.4190042766695</v>
+        <v>138.0245081983907</v>
       </c>
       <c r="R11">
-        <v>129.4190042766695</v>
+        <v>828.1470491903441</v>
       </c>
       <c r="S11">
-        <v>0.0248551024067197</v>
+        <v>0.02325631484602564</v>
       </c>
       <c r="T11">
-        <v>0.0248551024067197</v>
+        <v>0.01733630079425654</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.92372413010306</v>
+        <v>4.183793</v>
       </c>
       <c r="H12">
-        <v>3.92372413010306</v>
+        <v>12.551379</v>
       </c>
       <c r="I12">
-        <v>0.225137120793299</v>
+        <v>0.2176215002093358</v>
       </c>
       <c r="J12">
-        <v>0.225137120793299</v>
+        <v>0.2353223675658887</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>105.073387288303</v>
+        <v>109.1447706666667</v>
       </c>
       <c r="N12">
-        <v>105.073387288303</v>
+        <v>327.434312</v>
       </c>
       <c r="O12">
-        <v>0.3516912742863937</v>
+        <v>0.3535542089399963</v>
       </c>
       <c r="P12">
-        <v>0.3516912742863937</v>
+        <v>0.3655959674582361</v>
       </c>
       <c r="Q12">
-        <v>412.2789851347786</v>
+        <v>456.6391275018053</v>
       </c>
       <c r="R12">
-        <v>412.2789851347786</v>
+        <v>4109.752147516248</v>
       </c>
       <c r="S12">
-        <v>0.07917876090096508</v>
+        <v>0.07694099735484697</v>
       </c>
       <c r="T12">
-        <v>0.07917876090096508</v>
+        <v>0.08603290863481371</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.92372413010306</v>
+        <v>4.183793</v>
       </c>
       <c r="H13">
-        <v>3.92372413010306</v>
+        <v>12.551379</v>
       </c>
       <c r="I13">
-        <v>0.225137120793299</v>
+        <v>0.2176215002093358</v>
       </c>
       <c r="J13">
-        <v>0.225137120793299</v>
+        <v>0.2353223675658887</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>44.8389682919333</v>
+        <v>47.980825</v>
       </c>
       <c r="N13">
-        <v>44.8389682919333</v>
+        <v>143.942475</v>
       </c>
       <c r="O13">
-        <v>0.1500805703827607</v>
+        <v>0.155424969272891</v>
       </c>
       <c r="P13">
-        <v>0.1500805703827607</v>
+        <v>0.1607186127944892</v>
       </c>
       <c r="Q13">
-        <v>175.9357418559847</v>
+        <v>200.741839769225</v>
       </c>
       <c r="R13">
-        <v>175.9357418559847</v>
+        <v>1806.676557923025</v>
       </c>
       <c r="S13">
-        <v>0.0337887075029908</v>
+        <v>0.03382381498315645</v>
       </c>
       <c r="T13">
-        <v>0.0337887075029908</v>
+        <v>0.03782068447470452</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.92372413010306</v>
+        <v>4.183793</v>
       </c>
       <c r="H14">
-        <v>3.92372413010306</v>
+        <v>12.551379</v>
       </c>
       <c r="I14">
-        <v>0.225137120793299</v>
+        <v>0.2176215002093358</v>
       </c>
       <c r="J14">
-        <v>0.225137120793299</v>
+        <v>0.2353223675658887</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>61.2503773798872</v>
+        <v>62.26741999999999</v>
       </c>
       <c r="N14">
-        <v>61.2503773798872</v>
+        <v>186.80226</v>
       </c>
       <c r="O14">
-        <v>0.2050112195598081</v>
+        <v>0.2017037397794264</v>
       </c>
       <c r="P14">
-        <v>0.2050112195598081</v>
+        <v>0.2085735992386923</v>
       </c>
       <c r="Q14">
-        <v>240.329583703382</v>
+        <v>260.5139959240599</v>
       </c>
       <c r="R14">
-        <v>240.329583703382</v>
+        <v>2344.62596331654</v>
       </c>
       <c r="S14">
-        <v>0.04615563570201806</v>
+        <v>0.04389507044863226</v>
       </c>
       <c r="T14">
-        <v>0.04615563570201806</v>
+        <v>0.04908203318458792</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.92372413010306</v>
+        <v>4.183793</v>
       </c>
       <c r="H15">
-        <v>3.92372413010306</v>
+        <v>12.551379</v>
       </c>
       <c r="I15">
-        <v>0.225137120793299</v>
+        <v>0.2176215002093358</v>
       </c>
       <c r="J15">
-        <v>0.225137120793299</v>
+        <v>0.2353223675658887</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>57.203059180278</v>
+        <v>58.81030666666667</v>
       </c>
       <c r="N15">
-        <v>57.203059180278</v>
+        <v>176.43092</v>
       </c>
       <c r="O15">
-        <v>0.1914644354330388</v>
+        <v>0.1905050633580386</v>
       </c>
       <c r="P15">
-        <v>0.1914644354330388</v>
+        <v>0.1969935053322898</v>
       </c>
       <c r="Q15">
-        <v>224.4490236213701</v>
+        <v>246.0501493598533</v>
       </c>
       <c r="R15">
-        <v>224.4490236213701</v>
+        <v>2214.45134423868</v>
       </c>
       <c r="S15">
-        <v>0.04310575172770884</v>
+        <v>0.04145799768545093</v>
       </c>
       <c r="T15">
-        <v>0.04310575172770884</v>
+        <v>0.04635697806989796</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.92372413010306</v>
+        <v>4.183793</v>
       </c>
       <c r="H16">
-        <v>3.92372413010306</v>
+        <v>12.551379</v>
       </c>
       <c r="I16">
-        <v>0.225137120793299</v>
+        <v>0.2176215002093358</v>
       </c>
       <c r="J16">
-        <v>0.225137120793299</v>
+        <v>0.2353223675658887</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>30.4001852114798</v>
+        <v>30.503993</v>
       </c>
       <c r="N16">
-        <v>30.4001852114798</v>
+        <v>61.007986</v>
       </c>
       <c r="O16">
-        <v>0.1017525003379987</v>
+        <v>0.09881201864964768</v>
       </c>
       <c r="P16">
-        <v>0.1017525003379987</v>
+        <v>0.06811831517629259</v>
       </c>
       <c r="Q16">
-        <v>119.2819402738855</v>
+        <v>127.622392385449</v>
       </c>
       <c r="R16">
-        <v>119.2819402738855</v>
+        <v>765.734354312694</v>
       </c>
       <c r="S16">
-        <v>0.0229082649596162</v>
+        <v>0.0215036197372492</v>
       </c>
       <c r="T16">
-        <v>0.0229082649596162</v>
+        <v>0.01602976320188458</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.86369306473572</v>
+        <v>4.646104333333334</v>
       </c>
       <c r="H17">
-        <v>3.86369306473572</v>
+        <v>13.938313</v>
       </c>
       <c r="I17">
-        <v>0.2216926326573295</v>
+        <v>0.2416687907716983</v>
       </c>
       <c r="J17">
-        <v>0.2216926326573295</v>
+        <v>0.2613256133078609</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>105.073387288303</v>
+        <v>109.1447706666667</v>
       </c>
       <c r="N17">
-        <v>105.073387288303</v>
+        <v>327.434312</v>
       </c>
       <c r="O17">
-        <v>0.3516912742863937</v>
+        <v>0.3535542089399963</v>
       </c>
       <c r="P17">
-        <v>0.3516912742863937</v>
+        <v>0.3655959674582361</v>
       </c>
       <c r="Q17">
-        <v>405.9713177541066</v>
+        <v>507.0979919550729</v>
       </c>
       <c r="R17">
-        <v>405.9713177541066</v>
+        <v>4563.881927595656</v>
       </c>
       <c r="S17">
-        <v>0.0779673644791616</v>
+        <v>0.0854430181467733</v>
       </c>
       <c r="T17">
-        <v>0.0779673644791616</v>
+        <v>0.09553959041890428</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.86369306473572</v>
+        <v>4.646104333333334</v>
       </c>
       <c r="H18">
-        <v>3.86369306473572</v>
+        <v>13.938313</v>
       </c>
       <c r="I18">
-        <v>0.2216926326573295</v>
+        <v>0.2416687907716983</v>
       </c>
       <c r="J18">
-        <v>0.2216926326573295</v>
+        <v>0.2613256133078609</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>44.8389682919333</v>
+        <v>47.980825</v>
       </c>
       <c r="N18">
-        <v>44.8389682919333</v>
+        <v>143.942475</v>
       </c>
       <c r="O18">
-        <v>0.1500805703827607</v>
+        <v>0.155424969272891</v>
       </c>
       <c r="P18">
-        <v>0.1500805703827607</v>
+        <v>0.1607186127944892</v>
       </c>
       <c r="Q18">
-        <v>173.2440108194475</v>
+        <v>222.9239189494084</v>
       </c>
       <c r="R18">
-        <v>173.2440108194475</v>
+        <v>2006.315270544675</v>
       </c>
       <c r="S18">
-        <v>0.03327175675886784</v>
+        <v>0.03756136437990793</v>
       </c>
       <c r="T18">
-        <v>0.03327175675886784</v>
+        <v>0.0419998900585085</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.86369306473572</v>
+        <v>4.646104333333334</v>
       </c>
       <c r="H19">
-        <v>3.86369306473572</v>
+        <v>13.938313</v>
       </c>
       <c r="I19">
-        <v>0.2216926326573295</v>
+        <v>0.2416687907716983</v>
       </c>
       <c r="J19">
-        <v>0.2216926326573295</v>
+        <v>0.2613256133078609</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>61.2503773798872</v>
+        <v>62.26741999999999</v>
       </c>
       <c r="N19">
-        <v>61.2503773798872</v>
+        <v>186.80226</v>
       </c>
       <c r="O19">
-        <v>0.2050112195598081</v>
+        <v>0.2017037397794264</v>
       </c>
       <c r="P19">
-        <v>0.2050112195598081</v>
+        <v>0.2085735992386923</v>
       </c>
       <c r="Q19">
-        <v>236.6526582951158</v>
+        <v>289.3009298874866</v>
       </c>
       <c r="R19">
-        <v>236.6526582951158</v>
+        <v>2603.70836898738</v>
       </c>
       <c r="S19">
-        <v>0.04544947698850366</v>
+        <v>0.04874549888662329</v>
       </c>
       <c r="T19">
-        <v>0.04544947698850366</v>
+        <v>0.05450562374087926</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.86369306473572</v>
+        <v>4.646104333333334</v>
       </c>
       <c r="H20">
-        <v>3.86369306473572</v>
+        <v>13.938313</v>
       </c>
       <c r="I20">
-        <v>0.2216926326573295</v>
+        <v>0.2416687907716983</v>
       </c>
       <c r="J20">
-        <v>0.2216926326573295</v>
+        <v>0.2613256133078609</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>57.203059180278</v>
+        <v>58.81030666666667</v>
       </c>
       <c r="N20">
-        <v>57.203059180278</v>
+        <v>176.43092</v>
       </c>
       <c r="O20">
-        <v>0.1914644354330388</v>
+        <v>0.1905050633580386</v>
       </c>
       <c r="P20">
-        <v>0.1914644354330388</v>
+        <v>0.1969935053322898</v>
       </c>
       <c r="Q20">
-        <v>221.0150630365071</v>
+        <v>273.2388206486622</v>
       </c>
       <c r="R20">
-        <v>221.0150630365071</v>
+        <v>2459.14938583796</v>
       </c>
       <c r="S20">
-        <v>0.04244625475139965</v>
+        <v>0.04603912829762297</v>
       </c>
       <c r="T20">
-        <v>0.04244625475139965</v>
+        <v>0.051479448598626</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.86369306473572</v>
+        <v>4.646104333333334</v>
       </c>
       <c r="H21">
-        <v>3.86369306473572</v>
+        <v>13.938313</v>
       </c>
       <c r="I21">
-        <v>0.2216926326573295</v>
+        <v>0.2416687907716983</v>
       </c>
       <c r="J21">
-        <v>0.2216926326573295</v>
+        <v>0.2613256133078609</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>30.4001852114798</v>
+        <v>30.503993</v>
       </c>
       <c r="N21">
-        <v>30.4001852114798</v>
+        <v>61.007986</v>
       </c>
       <c r="O21">
-        <v>0.1017525003379987</v>
+        <v>0.09881201864964768</v>
       </c>
       <c r="P21">
-        <v>0.1017525003379987</v>
+        <v>0.06811831517629259</v>
       </c>
       <c r="Q21">
-        <v>117.4569847682759</v>
+        <v>141.7247340612697</v>
       </c>
       <c r="R21">
-        <v>117.4569847682759</v>
+        <v>850.3484043676181</v>
       </c>
       <c r="S21">
-        <v>0.02255777967939673</v>
+        <v>0.02387978106077086</v>
       </c>
       <c r="T21">
-        <v>0.02255777967939673</v>
+        <v>0.01780106049094283</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.08756562492579</v>
+        <v>4.338314</v>
       </c>
       <c r="H22">
-        <v>4.08756562492579</v>
+        <v>8.676627999999999</v>
       </c>
       <c r="I22">
-        <v>0.2345380881365079</v>
+        <v>0.2256589656943268</v>
       </c>
       <c r="J22">
-        <v>0.2345380881365079</v>
+        <v>0.1626757222013997</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>105.073387288303</v>
+        <v>109.1447706666667</v>
       </c>
       <c r="N22">
-        <v>105.073387288303</v>
+        <v>327.434312</v>
       </c>
       <c r="O22">
-        <v>0.3516912742863937</v>
+        <v>0.3535542089399963</v>
       </c>
       <c r="P22">
-        <v>0.3516912742863937</v>
+        <v>0.3655959674582361</v>
       </c>
       <c r="Q22">
-        <v>429.4943659741818</v>
+        <v>473.5042866099893</v>
       </c>
       <c r="R22">
-        <v>429.4943659741818</v>
+        <v>2841.025719659935</v>
       </c>
       <c r="S22">
-        <v>0.08248499908542299</v>
+        <v>0.07978267710627547</v>
       </c>
       <c r="T22">
-        <v>0.08248499908542299</v>
+        <v>0.05947358804018796</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.08756562492579</v>
+        <v>4.338314</v>
       </c>
       <c r="H23">
-        <v>4.08756562492579</v>
+        <v>8.676627999999999</v>
       </c>
       <c r="I23">
-        <v>0.2345380881365079</v>
+        <v>0.2256589656943268</v>
       </c>
       <c r="J23">
-        <v>0.2345380881365079</v>
+        <v>0.1626757222013997</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>44.8389682919333</v>
+        <v>47.980825</v>
       </c>
       <c r="N23">
-        <v>44.8389682919333</v>
+        <v>143.942475</v>
       </c>
       <c r="O23">
-        <v>0.1500805703827607</v>
+        <v>0.155424969272891</v>
       </c>
       <c r="P23">
-        <v>0.1500805703827607</v>
+        <v>0.1607186127944892</v>
       </c>
       <c r="Q23">
-        <v>183.282225447244</v>
+        <v>208.15588482905</v>
       </c>
       <c r="R23">
-        <v>183.282225447244</v>
+        <v>1248.9353089743</v>
       </c>
       <c r="S23">
-        <v>0.0351996100440093</v>
+        <v>0.0350730378091931</v>
       </c>
       <c r="T23">
-        <v>0.0351996100440093</v>
+        <v>0.02614501640755064</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.08756562492579</v>
+        <v>4.338314</v>
       </c>
       <c r="H24">
-        <v>4.08756562492579</v>
+        <v>8.676627999999999</v>
       </c>
       <c r="I24">
-        <v>0.2345380881365079</v>
+        <v>0.2256589656943268</v>
       </c>
       <c r="J24">
-        <v>0.2345380881365079</v>
+        <v>0.1626757222013997</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>61.2503773798872</v>
+        <v>62.26741999999999</v>
       </c>
       <c r="N24">
-        <v>61.2503773798872</v>
+        <v>186.80226</v>
       </c>
       <c r="O24">
-        <v>0.2050112195598081</v>
+        <v>0.2017037397794264</v>
       </c>
       <c r="P24">
-        <v>0.2050112195598081</v>
+        <v>0.2085735992386923</v>
       </c>
       <c r="Q24">
-        <v>250.3649370917591</v>
+        <v>270.13561992988</v>
       </c>
       <c r="R24">
-        <v>250.3649370917591</v>
+        <v>1620.81371957928</v>
       </c>
       <c r="S24">
-        <v>0.04808293948209125</v>
+        <v>0.04551625729530299</v>
       </c>
       <c r="T24">
-        <v>0.04808293948209125</v>
+        <v>0.03392986088829958</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4.08756562492579</v>
+        <v>4.338314</v>
       </c>
       <c r="H25">
-        <v>4.08756562492579</v>
+        <v>8.676627999999999</v>
       </c>
       <c r="I25">
-        <v>0.2345380881365079</v>
+        <v>0.2256589656943268</v>
       </c>
       <c r="J25">
-        <v>0.2345380881365079</v>
+        <v>0.1626757222013997</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>57.203059180278</v>
+        <v>58.81030666666667</v>
       </c>
       <c r="N25">
-        <v>57.203059180278</v>
+        <v>176.43092</v>
       </c>
       <c r="O25">
-        <v>0.1914644354330388</v>
+        <v>0.1905050633580386</v>
       </c>
       <c r="P25">
-        <v>0.1914644354330388</v>
+        <v>0.1969935053322898</v>
       </c>
       <c r="Q25">
-        <v>233.8212583459</v>
+        <v>255.1375767562933</v>
       </c>
       <c r="R25">
-        <v>233.8212583459</v>
+        <v>1530.82546053776</v>
       </c>
       <c r="S25">
-        <v>0.04490570263260077</v>
+        <v>0.04298917555690718</v>
       </c>
       <c r="T25">
-        <v>0.04490570263260077</v>
+        <v>0.03204606074891553</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>4.08756562492579</v>
+        <v>4.338314</v>
       </c>
       <c r="H26">
-        <v>4.08756562492579</v>
+        <v>8.676627999999999</v>
       </c>
       <c r="I26">
-        <v>0.2345380881365079</v>
+        <v>0.2256589656943268</v>
       </c>
       <c r="J26">
-        <v>0.2345380881365079</v>
+        <v>0.1626757222013997</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>30.4001852114798</v>
+        <v>30.503993</v>
       </c>
       <c r="N26">
-        <v>30.4001852114798</v>
+        <v>61.007986</v>
       </c>
       <c r="O26">
-        <v>0.1017525003379987</v>
+        <v>0.09881201864964768</v>
       </c>
       <c r="P26">
-        <v>0.1017525003379987</v>
+        <v>0.06811831517629259</v>
       </c>
       <c r="Q26">
-        <v>124.2627520618222</v>
+        <v>132.335899887802</v>
       </c>
       <c r="R26">
-        <v>124.2627520618222</v>
+        <v>529.3435995512079</v>
       </c>
       <c r="S26">
-        <v>0.02386483689238358</v>
+        <v>0.02229781792664802</v>
       </c>
       <c r="T26">
-        <v>0.02386483689238358</v>
+        <v>0.01108119611644596</v>
       </c>
     </row>
   </sheetData>
